--- a/municipal/ENG/Social Statistic/Living Allowance Families/Imereti/Zestafoni.xlsx
+++ b/municipal/ENG/Social Statistic/Living Allowance Families/Imereti/Zestafoni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Living Allowance Families\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,9 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Number of Helpless Families Receiving Subsistence Allowance in Zestafoni</t>
-  </si>
   <si>
     <t>(end of  year)</t>
   </si>
@@ -55,6 +52,9 @@
       </rPr>
       <t>: Ministry of internally displaced persons from the occupied territories, Labour, Health and Social Affairs of Georgia.</t>
     </r>
+  </si>
+  <si>
+    <t>Number of Helpless Families Receiving Subsistence Allowance in Zestafoni municipality</t>
   </si>
 </sst>
 </file>
@@ -205,11 +205,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -495,7 +495,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,19 +506,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -532,7 +532,7 @@
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
     </row>
     <row r="4" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6">
         <v>10703</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="5" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="15">
         <v>2906</v>
@@ -641,19 +641,19 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
